--- a/examples/20250829.xlsx
+++ b/examples/20250829.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RehangaG\Desktop\Queens\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RehangaG\Desktop\Queens\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2752308C-801A-4EC8-A250-093D84DADE08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED69F1E9-9DFC-4023-95D7-384141F11157}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
